--- a/biology/Zoologie/Ctenobrycon/Ctenobrycon.xlsx
+++ b/biology/Zoologie/Ctenobrycon/Ctenobrycon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Ctenobrycon regroupe plusieurs espèces de poissons américains de la famille des Characidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Ctenobrycon englobe des poissons d’eau douce tropicale appartenant à la famille des Characidae. Ces poissons sont caractérisés par leur corps allongé et modérément comprimé latéralement, avec des écailles relativement grandes et une coloration qui varie généralement du gris argenté au brun, souvent agrémentée de reflets métalliques ou de motifs subtils. La taille des espèces au sein de ce genre peut varier, mais elles restent généralement de petite à moyenne taille, adaptées à la vie en aquarium. Leurs nageoires sont bien proportionnées, avec une nageoire caudale fourchue qui leur confère une bonne mobilité et une nageoire adipeuse, caractéristique partagée avec de nombreux autres membres de la famille des Characidae. Adaptés à une vie en eau douce, les Ctenobrycon sont originaires de régions tropicales d’Amérique du Sud, où ils occupent divers habitats allant des ruisseaux clairs aux rivières à débit plus important.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces Proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les espèces proches de Ctenobrycon appartiennent principalement au vaste groupe des Characidae, une famille qui inclut de nombreux poissons d’eau douce d’Amérique du Sud, réputés pour leur diversité et adaptabilité écologique. Parmi ces proches, on trouve des genres tels que Hyphessobrycon, Hemigrammus, et Moenkhausia, qui partagent avec Ctenobrycon certaines caractéristiques physiques et comportementales, comme une taille similaire, des habitudes alimentaires omnivores, et une préférence pour les eaux douces tropicales. Ces genres se distinguent par des variations dans la coloration, la forme du corps, et la disposition des nageoires, mais tous maintiennent une structure sociale et un comportement en banc qui favorisent leur survie dans des environnements naturels parfois hostiles. Leur proximité évolutive avec Ctenobrycon souligne la richesse et la complexité des écosystèmes aquatiques d’Amérique du Sud, où la spéciation et la diversification ont été fortement influencées par la géographie et les conditions écologiques de la région.</t>
@@ -573,7 +589,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenobrycon spilurus, une espèce représentative du genre Ctenobrycon, est principalement répandue dans les cours d’eau douce de l’Amérique du Sud, notamment dans le bassin de l’Amazone et d’autres systèmes fluviaux adjacents. Ces poissons préfèrent les habitats avec une abondance de végétation aquatique et des eaux claires ou légèrement teintées, offrant ainsi une multitude de cachettes contre les prédateurs et des zones propices à la recherche de nourriture. Leur présence est souvent notée dans les ruisseaux, les petits à moyens fleuves, et les zones de forêt inondée, où les conditions d’eau varient de douce à légèrement acide. La température, la transparence de l’eau et la composition du substrat de ces habitats jouent un rôle crucial dans la distribution et la densité des populations de Ctenobrycon, reflétant la capacité de ces poissons à s’adapter à divers environnements aquatiques au sein de leur aire géographique.
 </t>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Ctenobrycon sont reconnus pour leur nature sociable et pacifique, faisant d’eux des résidents harmonieux dans les aquariums communautaires. Ils présentent un comportement grégaire, préférant vivre en bancs où ils peuvent interagir et nager ensemble, ce qui diminue leur stress et augmente leur bien-être. Actifs principalement durant la journée, ces poissons explorent constamment leur environnement à la recherche de nourriture, montrant une grande agilité et vivacité. Leur comportement lors de la reproduction est particulièrement intéressant, certains pouvant adopter des rituels de parade nuptiale complexes. Adaptés à un environnement riche en cachettes et en végétation, ils utilisent ces éléments pour se protéger des prédateurs et pour la ponte. Cette tendance à former des groupes et leur adaptabilité aux conditions d’aquarium font des Ctenobrycon des sujets d’étude fascinants pour les comportements sociaux chez les poissons d’eau douce.
 </t>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ctenobrycon sont des omnivores flexibles, ce qui leur permet de s’adapter à une large gamme d’aliments dans leur environnement naturel et en captivité. Leur régime alimentaire comprend une variété d’invertébrés, de petits crustacés, de larves d’insectes, ainsi que des particules végétales et des algues. Cette diversité alimentaire est cruciale pour leur santé et leur croissance. En aquarium, ils prospèrent avec une alimentation équilibrée composée de flocons ou de granulés de qualité, complétée par des aliments vivants ou congelés comme les daphnies, les vers de vase, ou les artémias, qui stimulent leur système immunitaire et favorisent un comportement alimentaire naturel. L’incorporation d’aliments végétaux ou de compléments à base de spiruline aide également à maintenir une bonne digestion et à reproduire les conditions de leur habitat naturel. Une attention particulière à la variété et à la qualité de l’alimentation est essentielle pour maintenir ces poissons en bonne santé et actifs.
 </t>
@@ -666,7 +688,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction des Ctenobrycon dans un environnement d’aquarium nécessite généralement des conditions soigneusement contrôlées pour simuler leur habitat naturel et encourager le comportement de frai. Ces poissons peuvent être relativement discrets en matière de reproduction, préférant souvent des eaux douces à légèrement acides et une température stable qui imite les conditions de leur milieu naturel. La préparation pour la reproduction inclut souvent l’augmentation des changements d’eau et l’offre d’une alimentation riche et variée pour stimuler les conditions de frai. La ponte a lieu généralement après une période de parade nuptiale, où le mâle peut devenir plus coloré et actif dans ses tentatives pour impressionner la femelle. Les œufs sont souvent dispersés parmi la végétation ou sur un substrat préparé, et dans certains cas, il peut y avoir un certain degré de soin parental, bien que cela varie selon les espèces spécifiques. Les aquariophiles doivent être prêts à séparer les œufs ou les alevins pour les protéger des adultes et assurer une alimentation appropriée pour soutenir leur croissance.
 </t>
@@ -697,7 +721,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La maintenance en captivité des Ctenobrycon exige une attention particulière à leur environnement aquatique pour assurer leur bien-être. Ces poissons, typiquement petits à moyens, préfèrent des aquariums où la qualité de l’eau est maintenue à un niveau élevé, avec un pH légèrement acide à neutre et des températures stables qui imitent leur habitat naturel tropical. Un filtre efficace est essentiel pour garder l’eau propre et bien oxygénée, tout en évitant les courants trop forts qui pourraient les stresser. L’aménagement de l’aquarium doit inclure des cachettes sous forme de plantes, racines ou roches, offrant des refuges sécurisants. Les changements d’eau réguliers sont cruciaux pour éliminer les déchets toxiques et maintenir l’équilibre de l’eau. Une alimentation variée, composée d’aliments secs de qualité, complétée par des proies vivantes ou congelées, est nécessaire pour leur bonne santé et vitalité. La surveillance attentive des paramètres de l’eau et la prévention des maladies par une gestion soignée de l’environnement sont des clés pour réussir la maintenance des Ctenobrycon en aquarium.
 </t>
@@ -728,7 +754,9 @@
           <t>Elevage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’élevage de Ctenobrycon en aquarium nécessite une attention particulière à leur environnement et à leurs besoins biologiques. Pour réussir leur reproduction, il est crucial de maintenir une qualité d’eau irréprochable, avec des paramètres stables proches de ceux de leur habitat naturel, incluant la température, le pH, et la dureté. Un régime alimentaire varié, riche en nutriments, favorise la santé et la fertilité des poissons. Les aquariophiles doivent également fournir un espace suffisant et des cachettes pour réduire le stress des poissons et encourager les comportements de reproduction naturels. La simulation de conditions saisonnières, comme les variations de température ou de luminosité, peut également déclencher le comportement de frai. Une surveillance attentive et des soins constants sont essentiels pour assurer le succès de l’élevage de Ctenobrycon en captivité.
